--- a/test/data/assert.xlsx
+++ b/test/data/assert.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\devsisters\.julia\dev\XLSXasJSON\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\.julia\dev\XLSXasJSON\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5ECAE4-94D2-4A5F-AEE2-2C94AF980531}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11985" yWindow="5925" windowWidth="27645" windowHeight="16935" activeTab="1"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="duplicate" sheetId="3" r:id="rId1"/>
-    <sheet name="start_line" sheetId="4" r:id="rId2"/>
-    <sheet name="empty" sheetId="5" r:id="rId3"/>
+    <sheet name="dup" sheetId="3" r:id="rId1"/>
+    <sheet name="dup2" sheetId="6" r:id="rId2"/>
+    <sheet name="dup3" sheetId="7" r:id="rId3"/>
+    <sheet name="start_line" sheetId="4" r:id="rId4"/>
+    <sheet name="empty" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>ColA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,11 +50,23 @@
     <t>That</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>dup(Int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dup(Float)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a.b.c.[1,d]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -403,7 +418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -457,41 +472,106 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C13:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA15DCE-C8FD-4061-A2C1-3C494EAD22CE}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>100.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EC60AC-CCE5-43FA-A1D2-5151404B68CD}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="C2:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C14">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="D3">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C15">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="D4">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C16">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C5">
         <v>3</v>
       </c>
     </row>
@@ -502,8 +582,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/test/data/assert.xlsx
+++ b/test/data/assert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\.julia\dev\XLSXasJSON\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5ECAE4-94D2-4A5F-AEE2-2C94AF980531}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFEAB19-1FD7-425C-98AA-FED1C07A63E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dup" sheetId="3" r:id="rId1"/>
@@ -541,7 +541,7 @@
   <dimension ref="C2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -578,7 +578,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/test/data/assert.xlsx
+++ b/test/data/assert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\.julia\dev\XLSXasJSON\test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Masterplan\.julia\dev\XLSXasJSON\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFEAB19-1FD7-425C-98AA-FED1C07A63E2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA72D931-E637-448D-B6FB-7FC62E0780BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dup" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="dup3" sheetId="7" r:id="rId3"/>
     <sheet name="start_line" sheetId="4" r:id="rId4"/>
     <sheet name="empty" sheetId="5" r:id="rId5"/>
+    <sheet name="dict_array" sheetId="8" r:id="rId6"/>
+    <sheet name="array_dict" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,37 +31,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
-  <si>
-    <t>ColA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>This</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>That</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dup(Int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dup(Float)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a.b.c.[1,d]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+  <si>
+    <t>/ColA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ColB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dup(Int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dup(Float)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/This</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/That</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/a/b/c/1/d</t>
+  </si>
+  <si>
+    <t>/1/a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/a/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cannot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>read</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,12 +435,12 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,10 +448,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>12</v>
       </c>
@@ -446,7 +459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>125</v>
       </c>
@@ -457,7 +470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>555</v>
       </c>
@@ -468,6 +481,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -476,20 +490,20 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>100</v>
       </c>
@@ -509,20 +523,20 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>100</v>
       </c>
@@ -540,21 +554,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C3">
         <v>1</v>
       </c>
@@ -562,7 +576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C4">
         <v>1</v>
       </c>
@@ -570,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C5">
         <v>3</v>
       </c>
@@ -586,11 +600,77 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907EC9F1-4DD3-445B-8FB1-B8635EB70877}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3BA1D7-6B37-4D97-B3F1-CB4736F39369}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/data/assert.xlsx
+++ b/test/data/assert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Masterplan\.julia\dev\XLSXasJSON\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA72D931-E637-448D-B6FB-7FC62E0780BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F8FE0C-2A78-43D9-8C71-E095CC380C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dup" sheetId="3" r:id="rId1"/>
@@ -41,14 +41,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/dup(Int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dup(Float)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/This</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,6 +65,14 @@
   </si>
   <si>
     <t>read</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dup::Vector{Int}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dup::Vector{Float64}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,18 +489,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA15DCE-C8FD-4061-A2C1-3C494EAD22CE}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -530,10 +530,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -562,10 +562,10 @@
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.45">
@@ -623,18 +623,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -647,7 +647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3BA1D7-6B37-4D97-B3F1-CB4736F39369}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -655,18 +655,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/test/data/assert.xlsx
+++ b/test/data/assert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Masterplan\.julia\dev\XLSXasJSON\test\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\.julia\dev\XLSXasJSON\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F8FE0C-2A78-43D9-8C71-E095CC380C4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59CC513-31DB-41DD-83D8-3F58BE8FEA35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="4185" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dup" sheetId="3" r:id="rId1"/>
@@ -68,11 +68,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/dup::Vector{Int}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/dup::Vector{Float64}</t>
+    <t>/dup::array{number}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/dup::array{integer}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -438,9 +438,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>12</v>
       </c>
@@ -459,7 +459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>125</v>
       </c>
@@ -470,7 +470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>555</v>
       </c>
@@ -490,20 +490,20 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -526,9 +526,9 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -536,7 +536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
@@ -558,9 +558,9 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>2</v>
       </c>
@@ -568,7 +568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C3">
         <v>1</v>
       </c>
@@ -576,7 +576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>1</v>
       </c>
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>3</v>
       </c>
@@ -604,7 +604,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -616,12 +616,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -629,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -648,12 +648,12 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -661,7 +661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
